--- a/Submissions/2 Reviewer Comments and Response/Lighting Paper Review Response 2.xlsx
+++ b/Submissions/2 Reviewer Comments and Response/Lighting Paper Review Response 2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\earpebr\Github\LightingPaper2020\Submissions\2 Reviewer Comments and Response\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/LightingPaper2020/Submissions/2 Reviewer Comments and Response/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3E3D8B-8A36-0C43-A74E-26E6AE349E53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="48680" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,72 +23,119 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Paul Brockway</author>
   </authors>
   <commentList>
-    <comment ref="E11" authorId="0" shapeId="0">
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Paul Brockway:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-moving a Table around doesn’t seem to tally with their comment. They just want the symbols from table 8 to be in the nomenclature?</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>moving a Table around doesn’t seem to tally with their comment. They just want the symbols from table 8 to be in the nomenclature?</t>
         </r>
       </text>
     </comment>
-    <comment ref="E29" authorId="0" shapeId="0">
+    <comment ref="E29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Paul Brockway:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-is thre reivewer mis-writing? Are they meaning that the 2nd law only holds for isolated systems? And therefore it doesn’t appy if we have a closed systems (only energy is exchnaged). 
-Wiki talks of the 2nd law and the isolated system (matter and energy can be exchnaged)https://en.wikipedia.org/wiki/Second_law_of_thermodynamics
-but i am sure hte 2nd law is universal, and even if we just had an siolated systems (energy exchnage only) then the 2nd law woudl hold
-simnple wiki talks of a closed system https://simple.wikipedia.org/wiki/Second_law_of_thermodynamics
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">is thre reivewer mis-writing? Are they meaning that the 2nd law only holds for isolated systems? And therefore it doesn’t appy if we have a closed systems (only energy is exchnaged). 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Wiki talks of the 2nd law and the isolated system (matter and energy can be exchnaged)https://en.wikipedia.org/wiki/Second_law_of_thermodynamics
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">but i am sure hte 2nd law is universal, and even if we just had an siolated systems (energy exchnage only) then the 2nd law woudl hold
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">simnple wiki talks of a closed system https://simple.wikipedia.org/wiki/Second_law_of_thermodynamics
 </t>
         </r>
       </text>
@@ -97,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
   <si>
     <t>The Energy and Exergy of Light</t>
   </si>
@@ -189,9 +237,6 @@
     <t>3.10</t>
   </si>
   <si>
-    <t>HELP!</t>
-  </si>
-  <si>
     <t>ZM</t>
   </si>
   <si>
@@ -242,11 +287,14 @@
   <si>
     <t>ZM: I believe reviewer three's comment to be wrong here. Paoli &amp; Cullen use four stages of energy loss to produce the figure 284-350 lm/W (Spectral Efficiency, Driver Efficiency, Wall Plug Efficiency, and Optical Efficiency - see right). The Luminous Efficacy of radiation that he refers to is the bottom row of table 5 (see right) - the spectral efficacy. The luminous effiacy of a source which he refers to is the 284-250 lm/W which includes all of the aformentioned stages.</t>
   </si>
+  <si>
+    <t>Perhaps we should back away from 2nd Law language and consider exergy accounting language. We are actually doing exergy accounting, anyway.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -279,17 +327,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
-      <color indexed="81"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
-      <color indexed="81"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -391,7 +439,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3192,7 +3239,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3267,7 +3313,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6715,45 +6760,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.75" style="2"/>
-    <col min="2" max="2" width="71.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="57.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.75" style="2"/>
-    <col min="5" max="5" width="48.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="44.75" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="10.75" style="2"/>
+    <col min="1" max="1" width="10.6640625" style="2"/>
+    <col min="2" max="2" width="71.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="57.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="2"/>
+    <col min="5" max="5" width="48.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="44.6640625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -6767,10 +6812,10 @@
         <v>22</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>1.1000000000000001</v>
       </c>
@@ -6781,10 +6826,10 @@
         <v>21</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>1.2</v>
       </c>
@@ -6795,15 +6840,15 @@
         <v>21</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
@@ -6817,10 +6862,10 @@
         <v>22</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>2.1</v>
       </c>
@@ -6834,7 +6879,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>2.2000000000000002</v>
       </c>
@@ -6848,12 +6893,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>4</v>
       </c>
@@ -6867,10 +6912,10 @@
         <v>22</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="132" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>3.1</v>
       </c>
@@ -6884,7 +6929,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>3.2</v>
       </c>
@@ -6898,7 +6943,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>3.3</v>
       </c>
@@ -6912,18 +6957,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>3.4</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="D29" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="E29" s="3" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>3.5</v>
       </c>
@@ -6931,16 +6979,16 @@
         <v>14</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="F30" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="178.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="178.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>3.6</v>
       </c>
@@ -6948,16 +6996,16 @@
         <v>15</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="177" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="177" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>3.7</v>
       </c>
@@ -6965,30 +7013,30 @@
         <v>16</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="161.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="161.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>3.8</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>3.9</v>
       </c>
@@ -6999,10 +7047,10 @@
         <v>21</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="241.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="241.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>29</v>
       </c>
@@ -7010,16 +7058,16 @@
         <v>18</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>3.11</v>
       </c>
@@ -7027,13 +7075,13 @@
         <v>19</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Submissions/2 Reviewer Comments and Response/Lighting Paper Review Response 2.xlsx
+++ b/Submissions/2 Reviewer Comments and Response/Lighting Paper Review Response 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/LightingPaper2020/Submissions/2 Reviewer Comments and Response/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7154E4-77D4-3E4A-A5A9-4BBAE642BD44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0175C5D1-C109-EF49-8684-9DB753262200}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28880" yWindow="460" windowWidth="25680" windowHeight="18460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -162,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
   <si>
     <t>The Energy and Exergy of Light</t>
   </si>
@@ -316,6 +316,15 @@
   </si>
   <si>
     <t>Split equations to their own lines.</t>
+  </si>
+  <si>
+    <t>Comma inserted, as suggested. Thanks!</t>
+  </si>
+  <si>
+    <t>The section in question seems right to us. The sentence says, "Thus, light is EM radiation … sensitivity." The parenthetical sentence is complete as writtten. "(See Figure 1.)" is an imperative sentence with implied subject "You". No changes were made in response to this particular suggestion. However, at the reviewer's suggestion, we did another thorough proofread immediately prior to submission.</t>
+  </si>
+  <si>
+    <t>DONE.</t>
   </si>
 </sst>
 </file>
@@ -5082,8 +5091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:AMK36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="A18:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5185,31 +5194,43 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="A18" s="8">
         <v>2.1</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="C18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="F18" s="8" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="19" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+    <row r="19" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="C19" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="8" t="s">
         <v>16</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="24" x14ac:dyDescent="0.3">

--- a/Submissions/2 Reviewer Comments and Response/Lighting Paper Review Response 2.xlsx
+++ b/Submissions/2 Reviewer Comments and Response/Lighting Paper Review Response 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/LightingPaper2020/Submissions/2 Reviewer Comments and Response/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0175C5D1-C109-EF49-8684-9DB753262200}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8204DD-1237-2D47-9D83-52EFA133B671}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28880" yWindow="460" windowWidth="25680" windowHeight="18460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -162,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
   <si>
     <t>The Energy and Exergy of Light</t>
   </si>
@@ -325,6 +325,12 @@
   </si>
   <si>
     <t>DONE.</t>
+  </si>
+  <si>
+    <t>We combined all nomenclature into a single table.</t>
+  </si>
+  <si>
+    <t>Table 8 is placed automatically by LaTeX. The proofs will almost certainly look different, so there is no need to address placement issues at this time.</t>
   </si>
 </sst>
 </file>
@@ -417,9 +423,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -431,6 +434,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5091,8 +5097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:AMK36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="A18:F18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5144,31 +5150,43 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="A11" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="C11" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="8" t="s">
         <v>11</v>
       </c>
+      <c r="F11" s="7" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+    <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
         <v>1.2</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="C12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="8" t="s">
         <v>13</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="24" x14ac:dyDescent="0.3">
@@ -5194,42 +5212,42 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <v>2.1</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="7" t="s">
         <v>53</v>
       </c>
     </row>
@@ -5259,13 +5277,13 @@
       <c r="A26" s="1">
         <v>3.1</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5273,13 +5291,13 @@
       <c r="A27" s="1">
         <v>3.2</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5287,13 +5305,13 @@
       <c r="A28" s="1">
         <v>3.3</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5301,13 +5319,13 @@
       <c r="A29" s="1">
         <v>3.4</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5315,13 +5333,13 @@
       <c r="A30" s="1">
         <v>3.5</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -5332,16 +5350,16 @@
       <c r="A31" s="1">
         <v>3.6</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -5349,73 +5367,73 @@
       <c r="A32" s="1">
         <v>3.7</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="272" x14ac:dyDescent="0.2">
-      <c r="A33" s="8">
+      <c r="A33" s="7">
         <v>3.8</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="8">
+      <c r="A34" s="7">
         <v>3.9</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="241.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="6" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5423,16 +5441,16 @@
       <c r="A36" s="1">
         <v>3.11</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="4" t="s">
         <v>46</v>
       </c>
     </row>

--- a/Submissions/2 Reviewer Comments and Response/Lighting Paper Review Response 2.xlsx
+++ b/Submissions/2 Reviewer Comments and Response/Lighting Paper Review Response 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\LightingPaper2020\Submissions\2 Reviewer Comments and Response\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99A2B6C-BA7B-43AA-9517-A79717104EA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7265E326-8488-4CD4-92DD-BF8387580294}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4596" yWindow="2820" windowWidth="9216" windowHeight="6660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -162,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
   <si>
     <t>The Energy and Exergy of Light</t>
   </si>
@@ -260,9 +260,6 @@
     <t xml:space="preserve">The paragraph in lines 86-91 is described in a very confusing expression. The luminous efficacy 284-350 lm/W is not including any energy loss, and just focuses on the effect of the photopic luminous weighting function itself only. For the completeness, it is called as THE LUMINOUS EFFICACY OF RADIATION. On the other hand, the electric wall-plugging efficiency, the internal efficiency, the extraction efficiency, the optic utilization factor are combined into THE LUMINOUS EFFICACY OF A SOURCE for the energy conversion efficiency. </t>
   </si>
   <si>
-    <t>Diagnose the problem by discerning where the confusion emerges from this paragraph. Rewrite for clarity.</t>
-  </si>
-  <si>
     <t xml:space="preserve">In the section of 2.1.1, all the upper dots over the variables should be deleted. It discusses on the energy conversion, rather than on the temporal change rate of the energies. </t>
   </si>
   <si>
@@ -282,9 +279,6 @@
   </si>
   <si>
     <t xml:space="preserve">Will the overall average values (0.956 and 1.36) used in Eq. (44) work for all lamps? and Why? </t>
-  </si>
-  <si>
-    <t>Add a sentence or two that narrows the claim to the lamps we studied. We could say that "in the absence of any better information, these values are recommended.</t>
   </si>
   <si>
     <t xml:space="preserve">There are two typical meanings for overdots in the engineering literature. (a) The overdot can signify a first derivative with respect to time, as is typical in noise and vibration literature. An example would be x_dot meaning the first derivative of position (x) with respect to time, or velocity.  (b) The overdot can also signify a steady state rate, as is typical in the energy literature. An example of this second meaning is Q_dot for a heat transfer rate (J/s or watts). We are using the overdot in the second sense to signify rates of energy and exergy flows during steady-state operation. 
@@ -331,6 +325,12 @@
   </si>
   <si>
     <t>I have emphasised that Paoli &amp; Cullen's estimate of 284-350 lm/W includes all of the reviewers aforemented stages, which Paoli &amp; Cullen term: Driver efficiency, Wall Plug efficiency, Optical efficiency, and Spectral efficiency. The estimate of 284-350 lm/W is therefore the luminous efficacy of the source. The luminous efficacy of radiation, which refers to the effect of the photopic luminosity function alone is termed the Spectral efficiency by Paoli &amp; Cullen, and equal to 348-414 lm/W. This information can be found in Section 2.2.2 of the SI of Paoli &amp; Cullen (2020).</t>
+  </si>
+  <si>
+    <t>We have added the coreect CIE reference for the 10 deg CMF function.</t>
+  </si>
+  <si>
+    <t>Add a sentence or two that narrows the claim to the lamps we studied. We could say that "in the absence of any better information, these values are recommended. ZM: I have not added any further text as I believe we have covered this ground sufficiently.</t>
   </si>
 </sst>
 </file>
@@ -924,6 +924,168 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1249680</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4B40757-0F56-4B2A-BE0C-6CFD3BA359E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12702540" cy="13997940"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1249680</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEE47FA2-C683-4BF5-8174-F84FDD16CAAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12702540" cy="13997940"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1249680</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73C85948-531A-4338-997B-D55FD67D63DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12702540" cy="13997940"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1226,8 +1388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:AMK36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1286,7 +1448,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>10</v>
@@ -1295,7 +1457,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
@@ -1306,7 +1468,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>10</v>
@@ -1315,7 +1477,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
@@ -1348,7 +1510,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>10</v>
@@ -1357,7 +1519,7 @@
         <v>16</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
@@ -1368,7 +1530,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>10</v>
@@ -1377,7 +1539,7 @@
         <v>16</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
@@ -1466,7 +1628,7 @@
         <v>27</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>28</v>
@@ -1475,7 +1637,7 @@
         <v>29</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="178.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1486,16 +1648,16 @@
         <v>30</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="177" customHeight="1" x14ac:dyDescent="0.3">
@@ -1506,16 +1668,16 @@
         <v>31</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="265.2" x14ac:dyDescent="0.3">
@@ -1523,19 +1685,19 @@
         <v>3.8</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1543,39 +1705,39 @@
         <v>3.9</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="241.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="C35" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
@@ -1583,19 +1745,19 @@
         <v>3.11</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Submissions/2 Reviewer Comments and Response/Lighting Paper Review Response 2.xlsx
+++ b/Submissions/2 Reviewer Comments and Response/Lighting Paper Review Response 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\LightingPaper2020\Submissions\2 Reviewer Comments and Response\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/LightingPaper2020/Submissions/2 Reviewer Comments and Response/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7265E326-8488-4CD4-92DD-BF8387580294}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C63C352-281E-B84A-8193-8D216F045B40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="41300" windowHeight="28340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -101,9 +101,61 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">is thre reivewer mis-writing? Are they meaning that the 2nd law only holds for isolated systems? And therefore it doesn’t appy if we have a closed systems (only energy is exchnaged). 
-Wiki talks of the 2nd law and the isolated system (matter and energy can be exchnaged)https://en.wikipedia.org/wiki/Second_law_of_thermodynamics
-but i am sure hte 2nd law is universal, and even if we just had an siolated systems (energy exchnage only) then the 2nd law woudl hold
-simnple wiki talks of a closed system https://simple.wikipedia.org/wiki/Second_law_of_thermodynamics
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Wiki talks of the 2nd law and the isolated system (matter and energy can be exchnaged)https://en.wikipedia.org/wiki/Second_law_of_thermodynamics
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">but i am sure hte 2nd law is universal, and even if we just had an siolated systems (energy exchnage only) then the 2nd law woudl hold
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">simnple wiki talks of a closed system https://simple.wikipedia.org/wiki/Second_law_of_thermodynamics
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
         <r>
@@ -130,7 +182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="E32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -152,7 +204,39 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">: I think the reviewer is getting what the dots mean but that he disagrees with the use of dots in this case. To be honest I think both are correct, using dots imply that we talk about derivatives over time, not using these implicitly imply that we are considering “some finite event in time”, and writing down the energy that has been exchanged in each form during that particular “finite event in time”. I never used dots in my physics / engineering studies for these type of things although we used them for plenty of mechanical stuff.
-I’m not saying that the one is better than the other, both are totally fine to me, but if we are going to push-back on a few things for reviewer #3 (and it looks like we’ll have to), perhaps an effort is worth here. But happy with whatever MKH decides!
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">I’m not saying that the one is better than the other, both are totally fine to me, but if we are going to push-back on a few things for reviewer #3 (and it looks like we’ll have to), perhaps an effort is worth here. But happy with whatever MKH decides!
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
       </text>
@@ -162,7 +246,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
   <si>
     <t>The Energy and Exergy of Light</t>
   </si>
@@ -225,9 +309,6 @@
   </si>
   <si>
     <t>The reviewer misunderstands SEA. SEA is not a method that is applied to lighting technology. Lighting technology is a PART OF SEA. We should clarify this point in the manuscript so that readers will not be similarly confused.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As stated in lines 5-6, the societal exergy practitioners conventionally estimate the exergetic efficiency of lamps by an energy efficiency. Why does the conventional estimation bring to confusion and mis- takes? What kinds of confusion and mistakes will happen? </t>
   </si>
   <si>
     <t>The reviewer is referring to the abstract here. We discuss the confusion in the body of the paper. In response to this comment, we should point the reviewer to the place in the body of the paper where we discuss the confusion. We should also consider whether the confusions are highlighted enough in the body of the paper. If not, highlight the confusions and mistakes.</t>
@@ -315,9 +396,6 @@
     <t xml:space="preserve">Diagnose the problem by discerning where the confusion emerges from this paragraph. Rewrite for clarity. </t>
   </si>
   <si>
-    <t>We have changed the upper limit of the visible spectrum from 750 to 780 throughout the paper, in both the text, our calculations, and results.</t>
-  </si>
-  <si>
     <t>A comparison between the results of the final-to-useful efficiency of the four lamps using the three methods (conventional, exact, approximate) can be found in table 7 (line 519 onwards). However the aim of this study is the establishment of a scientifically correct method - so the method is the result itself.</t>
   </si>
   <si>
@@ -331,13 +409,95 @@
   </si>
   <si>
     <t>Add a sentence or two that narrows the claim to the lamps we studied. We could say that "in the absence of any better information, these values are recommended. ZM: I have not added any further text as I believe we have covered this ground sufficiently.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As stated in lines 5-6, the societal exergy practitioners conventionally estimate the exergetic efficiency of lamps by an energy efficiency. Why does the conventional estimation bring to confusion and mistakes? What kinds of confusion and mistakes will happen? </t>
+  </si>
+  <si>
+    <t>We have changed the upper limit of the visible spectrum from 750 to 780 throughout the paper, in the text, our calculations, and results.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This helpful comment refers to the abstract. This comment highlights the fact that we discuss in the body of the paper how the confusion about K_max can lead to mistakes. Specifically, in Section 4.1.2, we show how choosing the wrong K_max can cause a 3.1x or 1.7x error in exergetic efficiency. But the abstract lacked such detail, even in shortened form.
+To be more specific about the potential problems, we edited the abstract to say "Conventionally, societal exergy practitioners estimate the exergetic efficiency of lamps by an energy efficiency, causing confusion and, sometimes, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>overestimation of exergetic efficiency by a factor of 3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The sentence we added in Section 1.2 clarifies the motivation for this article. ("</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Thus, societal exergy analysis relies upon results from the energy and exergy analysis of lamps and lighting to assess the ways in which useful energy products enable economic growth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.")
+Further, we direct attention to key sentences in the introduction that discuss the motivation for the paper. "Clearly, there are many options for Kmax, and its value has a large effect on the valuable exergetic efficiency of lighting in the conventional method (Equation 3). So getting it right is important." And "Although the confusion around maximum luminous efficacy (Kmax) is sufficient motivation to dig
+deeper to fully understand and define the exergy of light and the exergetic efficiency of lamps, further issues and confusions await. (See Section 4.) Thus, there is ample need for clarity and rigor about the thermodynamics of artificial lighting."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>This is a very helpful comment. It spurred us to be more careful about describing the relationship between societal exergy analysis and lighting. In fact, societal exergy analysis USES results from energy and exergy analysis of lighting to assess how useful energy products enable economic growth. (The question implies the reverse: that societal exergy analysis is applied to lighting, which it is not.) 
+To clarify this issue for the reader, we inserted the following sentence in Section 1.2: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Thus, societal exergy analysis relies upon results from the energy and exergy analysis of lamps and lighting to assess the ways in which useful energy products enable economic growth.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -391,6 +551,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -418,26 +584,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -530,14 +702,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>590400</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>704880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>579600</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>541240</xdr:rowOff>
+      <xdr:rowOff>1201640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -573,13 +745,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>419040</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>25560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>61920</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>529560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -625,7 +797,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>495300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -674,7 +846,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>495300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -723,7 +895,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>495300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -772,7 +944,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1249680</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -826,7 +998,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1249680</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -880,7 +1052,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1249680</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -934,7 +1106,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1249680</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -988,7 +1160,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1249680</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1042,7 +1214,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1249680</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1062,6 +1234,168 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="12702540" cy="13997940"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1257300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>495300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{722DA0ED-2C4E-3C46-96BD-7E1F0C7ECF46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="13995400"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1257300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>495300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB4FA2D9-DBA6-9940-A4FF-4FBE3FCA99EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="13995400"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1257300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>495300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CB93D9E-87C7-3846-9492-34892AD72293}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="13995400"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1386,44 +1720,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:AMK36"/>
+  <dimension ref="A3:AMK35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="71.19921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="57.69921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.69921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="48.296875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="44.69921875" style="1" customWidth="1"/>
-    <col min="7" max="1025" width="10.69921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="71.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="57.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="48.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="44.6640625" style="1" customWidth="1"/>
+    <col min="7" max="1025" width="10.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1440,52 +1774,52 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="95.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+    <row r="11" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
         <v>1.2</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F12" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
@@ -1502,52 +1836,52 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
+    <row r="18" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
         <v>2.1</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="106" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="F19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="22" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
         <v>4</v>
       </c>
@@ -1564,200 +1898,220 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="132" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+    <row r="25" spans="1:6" ht="221" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
         <v>3.1</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B25" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="C25" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E25" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+      <c r="F25" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="204" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
         <v>3.2</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B26" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="F26" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="289" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="78" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>3.3</v>
-      </c>
-      <c r="B28" s="4" t="s">
+      <c r="E27" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="F27" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="78" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>3.4</v>
-      </c>
-      <c r="B29" s="4" t="s">
+      <c r="E28" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="92" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="7">
+        <v>3.6</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="177" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="272" x14ac:dyDescent="0.2">
+      <c r="A32" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="B30" s="6" t="s">
+      <c r="E32" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A33" s="7">
+        <v>3.9</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="241.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="178.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
-        <v>3.6</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="6" t="s">
+      <c r="E34" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A35" s="7">
+        <v>3.11</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="177" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
-        <v>3.7</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="6" t="s">
+      <c r="D35" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="265.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
-        <v>3.8</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5">
-        <v>3.9</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="5" t="s">
+      <c r="F35" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="241.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="5">
-        <v>3.11</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Submissions/2 Reviewer Comments and Response/Lighting Paper Review Response 2.xlsx
+++ b/Submissions/2 Reviewer Comments and Response/Lighting Paper Review Response 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/LightingPaper2020/Submissions/2 Reviewer Comments and Response/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C63C352-281E-B84A-8193-8D216F045B40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0250DF84-BE04-B140-9054-22FC41C6016B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="41300" windowHeight="28340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -246,7 +246,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="60">
   <si>
     <t>The Energy and Exergy of Light</t>
   </si>
@@ -415,31 +415,6 @@
   </si>
   <si>
     <t>We have changed the upper limit of the visible spectrum from 750 to 780 throughout the paper, in the text, our calculations, and results.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This helpful comment refers to the abstract. This comment highlights the fact that we discuss in the body of the paper how the confusion about K_max can lead to mistakes. Specifically, in Section 4.1.2, we show how choosing the wrong K_max can cause a 3.1x or 1.7x error in exergetic efficiency. But the abstract lacked such detail, even in shortened form.
-To be more specific about the potential problems, we edited the abstract to say "Conventionally, societal exergy practitioners estimate the exergetic efficiency of lamps by an energy efficiency, causing confusion and, sometimes, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>overestimation of exergetic efficiency by a factor of 3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"</t>
-    </r>
   </si>
   <si>
     <r>
@@ -490,6 +465,57 @@
         <charset val="1"/>
       </rPr>
       <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This helpful comment refers to the abstract. This comment highlights the fact that we discuss in the body of the paper how the confusion about K_max can lead to mistakes. Specifically, in Section 4.1.2, we show how choosing the wrong K_max can cause a 3.1x or 1.7x error in exergetic efficiency. But the abstract lacked such detail, even in shortened form.
+To be more specific about the potential problems, we edited the abstract to say "Conventionally, societal exergy practitioners estimate the exergetic efficiency of lamps by an energy efficiency, causing confusion and, sometimes, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>overestimation of exergetic efficiency by a factor as large as 3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The reviewer brings up a very good point here. And the most important place where we used the sedond law to support our analysis is where we said "... because the second law of thermodynamics states that exergy is always destroyed ..."  That phrasing unnecessarily raised the issue of closed vs. isloated systems. 
+Upon further reflection, we don't need to rely upon the second law to make our case at all, thereby sidestepping any potential confusion about closed vs. isolated systems. Instead, we can simply note that all real machines (including including heat engines and lamps) are internally irreversible. Thus, all real processes destroy exergy.
+To reflect this simpler and more-direct approach, we rewrote the sentence in question to say "... </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>because all real processes are internally irreversible, such that</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ...".</t>
     </r>
   </si>
 </sst>
@@ -584,7 +610,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -592,9 +618,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1420,6 +1443,168 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1257300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>495300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="AutoShape 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE41EEDB-6E63-5047-882E-C96B4972F373}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="18732500"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1257300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>495300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BE9A191-89E5-544B-B678-D31C90249078}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="18732500"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1257300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>495300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E90B67E8-1645-5E4B-B996-E562C1936187}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="18732500"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1722,8 +1907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:AMK35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1778,19 +1963,19 @@
       <c r="A11" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1798,19 +1983,19 @@
       <c r="A12" s="4">
         <v>1.2</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1840,19 +2025,19 @@
       <c r="A18" s="4">
         <v>2.1</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1860,19 +2045,19 @@
       <c r="A19" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1899,218 +2084,220 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="221" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>3.1</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="7" t="s">
+      <c r="C25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="204" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
+      <c r="A26" s="6">
         <v>3.2</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="7" t="s">
+      <c r="C26" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="289" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
+      <c r="A27" s="6">
         <v>3.3</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="7" t="s">
+      <c r="C27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
+    <row r="28" spans="1:6" ht="289" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
         <v>3.4</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5" t="s">
+      <c r="C28" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
+      <c r="A29" s="6">
         <v>3.5</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="92" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
+      <c r="A30" s="6">
         <v>3.6</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="177" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="7">
+      <c r="A31" s="6">
         <v>3.7</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="272" x14ac:dyDescent="0.2">
-      <c r="A32" s="7">
+      <c r="A32" s="6">
         <v>3.8</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A33" s="7">
+      <c r="A33" s="6">
         <v>3.9</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="241.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="102" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
+      <c r="A35" s="6">
         <v>3.11</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="7" t="s">
         <v>40</v>
       </c>
     </row>

--- a/Submissions/2 Reviewer Comments and Response/Lighting Paper Review Response 2.xlsx
+++ b/Submissions/2 Reviewer Comments and Response/Lighting Paper Review Response 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/LightingPaper2020/Submissions/2 Reviewer Comments and Response/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0250DF84-BE04-B140-9054-22FC41C6016B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B566ACF-285E-184D-B26D-1620A46897B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
